--- a/municipal/სასტუმროები/სტუმრები/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ცაგერი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ცაგერი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\რაჭა - ლეჩხუმი და ქვემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\რაჭა - ლეჩხუმი და ქვემო სვანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ცაგერის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ცაგერის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,19 +404,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,8 +425,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -670,7 +732,7 @@
   <sheetData>
     <row r="1" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -765,46 +827,46 @@
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
       <c r="U2" s="60"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
@@ -898,14 +960,14 @@
       <c r="BQ3" s="15"/>
     </row>
     <row r="4" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58">
+      <c r="A4" s="62">
         <v>2010</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1259,14 +1321,14 @@
       <c r="BQ10" s="5"/>
     </row>
     <row r="11" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55">
+      <c r="A11" s="56">
         <v>2011</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1572,14 +1634,14 @@
       <c r="Z17" s="46"/>
     </row>
     <row r="18" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55">
+      <c r="A18" s="56">
         <v>2012</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -1885,14 +1947,14 @@
       <c r="Z24" s="46"/>
     </row>
     <row r="25" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55">
+      <c r="A25" s="56">
         <v>2013</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
@@ -2198,14 +2260,14 @@
       <c r="Z31" s="46"/>
     </row>
     <row r="32" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55">
+      <c r="A32" s="56">
         <v>2014</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
@@ -2491,14 +2553,14 @@
       <c r="Z38" s="46"/>
     </row>
     <row r="39" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55">
+      <c r="A39" s="56">
         <v>2015</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
@@ -2837,14 +2899,14 @@
       <c r="Z45" s="46"/>
     </row>
     <row r="46" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55">
+      <c r="A46" s="56">
         <v>2016</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
@@ -3150,14 +3212,14 @@
       <c r="Z52" s="46"/>
     </row>
     <row r="53" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55">
+      <c r="A53" s="56">
         <v>2017</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
@@ -3463,14 +3525,14 @@
       <c r="Z59" s="46"/>
     </row>
     <row r="60" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
+      <c r="A60" s="56">
         <v>2018</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
@@ -3776,14 +3838,14 @@
       <c r="Z66" s="46"/>
     </row>
     <row r="67" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="55">
+      <c r="A67" s="56">
         <v>2019</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
@@ -3852,7 +3914,7 @@
       <c r="A68" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="62">
+      <c r="B68" s="55">
         <v>1051</v>
       </c>
       <c r="C68" s="23">
@@ -4089,14 +4151,14 @@
       <c r="Z73" s="46"/>
     </row>
     <row r="74" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55">
+      <c r="A74" s="56">
         <v>2020</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
@@ -4402,14 +4464,14 @@
       <c r="Z80" s="46"/>
     </row>
     <row r="81" spans="1:69" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="55">
+      <c r="A81" s="56">
         <v>2021</v>
       </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
@@ -4684,13 +4746,15 @@
       <c r="T87" s="46"/>
       <c r="U87" s="46"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
+    <row r="88" spans="1:69" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
       <c r="G88" s="46"/>
       <c r="H88" s="46"/>
       <c r="I88" s="46"/>
@@ -6525,7 +6589,23 @@
       <c r="U167" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -6535,21 +6615,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
